--- a/Czasy.xlsx
+++ b/Czasy.xlsx
@@ -1,11 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27126"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{627046DA-F7E5-4520-BA61-08DA7C6F5C28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Achim\Desktop\studia\Laplace\LaplaceX\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{984DAA59-CC26-4D8E-AA68-96DF39069CFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -46,7 +51,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -129,7 +134,15 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Czas wykonywania algorytmu w zależności od wątków (bitmapa 1280 x 720)</a:t>
+              <a:t>Czas wykonywania algorytmu w zależności od wątków (bitmapa 5184</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> x 3456</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>)</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -243,37 +256,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>137</c:v>
+                  <c:v>280</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>22</c:v>
+                  <c:v>155</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>15</c:v>
+                  <c:v>117</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10</c:v>
+                  <c:v>94</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8</c:v>
+                  <c:v>81</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>11</c:v>
+                  <c:v>76</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>11</c:v>
+                  <c:v>76</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9</c:v>
+                  <c:v>64</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9</c:v>
+                  <c:v>63</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>9</c:v>
+                  <c:v>65</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -357,37 +370,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>145</c:v>
+                  <c:v>857</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>32</c:v>
+                  <c:v>461</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>21</c:v>
+                  <c:v>350</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>53</c:v>
+                  <c:v>242</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>12</c:v>
+                  <c:v>203</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>21</c:v>
+                  <c:v>186</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>18</c:v>
+                  <c:v>189</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>18</c:v>
+                  <c:v>175</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>13</c:v>
+                  <c:v>170</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>12</c:v>
+                  <c:v>172</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>13</c:v>
+                  <c:v>170</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -466,8 +479,8 @@
         <c:axId val="333662728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="150"/>
-          <c:min val="2"/>
+          <c:max val="900"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -519,8 +532,8 @@
         <c:crossAx val="333660168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
-        <c:majorUnit val="20"/>
-        <c:minorUnit val="5"/>
+        <c:majorUnit val="100"/>
+        <c:minorUnit val="30"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -1514,12 +1527,12 @@
   <dimension ref="A2:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="A2:C13"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1530,125 +1543,125 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>137</v>
+        <v>280</v>
       </c>
       <c r="C3">
-        <v>145</v>
+        <v>857</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>22</v>
+        <v>155</v>
       </c>
       <c r="C4">
-        <v>32</v>
+        <v>461</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>15</v>
+        <v>117</v>
       </c>
       <c r="C5">
-        <v>21</v>
+        <v>350</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>10</v>
+        <v>94</v>
       </c>
       <c r="C6">
-        <v>53</v>
+        <v>242</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>8</v>
+        <v>81</v>
       </c>
       <c r="C7">
-        <v>12</v>
+        <v>203</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>9</v>
+        <v>75</v>
       </c>
       <c r="C8">
-        <v>21</v>
+        <v>186</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>11</v>
+        <v>76</v>
       </c>
       <c r="C9">
-        <v>18</v>
+        <v>189</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>11</v>
+        <v>76</v>
       </c>
       <c r="C10">
-        <v>18</v>
+        <v>175</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>16</v>
       </c>
       <c r="B11">
-        <v>9</v>
+        <v>64</v>
       </c>
       <c r="C11">
-        <v>13</v>
+        <v>170</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>32</v>
       </c>
       <c r="B12">
-        <v>9</v>
+        <v>63</v>
       </c>
       <c r="C12">
-        <v>12</v>
+        <v>172</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>64</v>
       </c>
       <c r="B13">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="C13">
-        <v>13</v>
+        <v>170</v>
       </c>
     </row>
   </sheetData>
